--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342859.9686776137</v>
+        <v>340277.9192838934</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>351.4455193861473</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>95.79694431959571</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -716,10 +716,10 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>228.9207865666787</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.58463397061693</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -874,16 +874,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>67.22630008056049</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>348.0187974892218</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32840477950893</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>50.78000079062862</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>17.7441880045977</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>64.52901158821746</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>151.3409632070649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>90.61287816728863</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -1345,19 +1345,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>112.0432470748082</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520959</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936179</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>20.38427178197838</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503954</v>
       </c>
       <c r="H19" t="n">
-        <v>9.79525160687537</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,13 +2135,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.3626499519043</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712579</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.55707494718576</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>29.249233057517</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.5644455446335</v>
+        <v>1129.495825602992</v>
       </c>
       <c r="C2" t="n">
-        <v>148.5644455446335</v>
+        <v>1129.495825602992</v>
       </c>
       <c r="D2" t="n">
-        <v>148.5644455446335</v>
+        <v>774.50035147557</v>
       </c>
       <c r="E2" t="n">
-        <v>148.5644455446335</v>
+        <v>774.50035147557</v>
       </c>
       <c r="F2" t="n">
-        <v>51.7998553228197</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="G2" t="n">
-        <v>51.7998553228197</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870228</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520175</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719113</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629513</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912934</v>
+        <v>1629.816941868061</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>2270.840151487955</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2471.144478777058</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140985</v>
+        <v>2573.391940096113</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077745</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1893.100915839883</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1893.100915839883</v>
       </c>
       <c r="X2" t="n">
-        <v>925.3036175845671</v>
+        <v>1519.635157578803</v>
       </c>
       <c r="Y2" t="n">
-        <v>535.1642856087553</v>
+        <v>1129.495825602992</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.538474420229</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234839</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703285</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136617</v>
+        <v>1701.618369576713</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2330.347017412134</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2502.675978365844</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.5390793310301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>346.6028964031232</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1257.076416461507</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1257.076416461507</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1032.665257236945</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>743.5286302290474</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>743.5286302290474</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="W4" t="n">
-        <v>743.5286302290474</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="X4" t="n">
-        <v>515.5390793310301</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.5390793310301</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.528110618234</v>
+        <v>1142.556133290409</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.565593677822</v>
+        <v>1142.556133290409</v>
       </c>
       <c r="D5" t="n">
-        <v>945.2998950710717</v>
+        <v>784.2904346836588</v>
       </c>
       <c r="E5" t="n">
-        <v>945.2998950710717</v>
+        <v>784.2904346836588</v>
       </c>
       <c r="F5" t="n">
-        <v>534.3139902814642</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>118.6321484815961</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961804</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.528110618234</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.528110618234</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.528110618234</v>
+        <v>1142.556133290409</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>1104.091621317938</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.5288536324773</v>
+        <v>350.5640303022736</v>
       </c>
       <c r="C7" t="n">
-        <v>304.2359235409332</v>
+        <v>350.5640303022736</v>
       </c>
       <c r="D7" t="n">
-        <v>304.2359235409332</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E7" t="n">
-        <v>304.2359235409332</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.412641916872</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V7" t="n">
-        <v>1093.728153710985</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="W7" t="n">
-        <v>804.3109836740248</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="X7" t="n">
-        <v>576.3214327760074</v>
+        <v>550.1359173593797</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.5288536324773</v>
+        <v>532.2124951325134</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.346085691492</v>
+        <v>908.9230203813427</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.346085691492</v>
+        <v>908.9230203813427</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.080387084741</v>
+        <v>908.9230203813427</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.81558556073</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="X8" t="n">
-        <v>2312.945925755614</v>
+        <v>1299.062352357154</v>
       </c>
       <c r="Y8" t="n">
-        <v>2312.945925755614</v>
+        <v>908.9230203813427</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349159</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452984</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.8400517305967</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9038688026898</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D10" t="n">
-        <v>396.787229390354</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>248.8741358079609</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>938.4816527122264</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.478067458854</v>
+        <v>683.7971645063395</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.478067458854</v>
+        <v>570.6221674610787</v>
       </c>
       <c r="X10" t="n">
-        <v>897.4885165608364</v>
+        <v>570.6221674610787</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.4885165608364</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740956</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836007</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556938</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556938</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E19" t="n">
-        <v>417.7969033733007</v>
+        <v>215.823867745341</v>
       </c>
       <c r="F19" t="n">
-        <v>270.9069558753903</v>
+        <v>215.823867745341</v>
       </c>
       <c r="G19" t="n">
-        <v>103.7108565902702</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138404</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888043</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2402.966038179063</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2220.111203833967</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2000.509738856908</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.434512201106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1456.750023995219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>939.3433030602413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.47518020374</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>117.327424290744</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083437</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.1946181815976</v>
+        <v>42.96312933803412</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>84.69108553971142</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>22.26125001357684</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>245.4670104377188</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>299.8549597144494</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>10.05242792961587</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.4670104377197</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.2833535462794</v>
+        <v>3.237522234535624</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>311.0791014221157</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788686</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>280.2941372823682</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345295125</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8002026072658</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187344</v>
       </c>
       <c r="H19" t="n">
-        <v>130.4994612393485</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038668</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.81817176293593</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>117.1847295890522</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26314,28 +26314,28 @@
         <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605026</v>
@@ -26347,7 +26347,7 @@
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605027</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.955102495</v>
+        <v>117230.9551024947</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26430,34 +26430,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695071</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695033</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695032</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695033</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695075</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695064</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810340.97937298</v>
+        <v>-810527.3727615199</v>
       </c>
       <c r="C6" t="n">
-        <v>-25843.40743772368</v>
+        <v>-25843.40743772249</v>
       </c>
       <c r="D6" t="n">
-        <v>146920.9523521699</v>
+        <v>146920.95235217</v>
       </c>
       <c r="E6" t="n">
-        <v>-245082.9082408503</v>
+        <v>-245117.6461662859</v>
       </c>
       <c r="F6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="G6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794646</v>
       </c>
       <c r="H6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="I6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="J6" t="n">
-        <v>86391.94267885252</v>
+        <v>86357.20475341668</v>
       </c>
       <c r="K6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.2215794647</v>
       </c>
       <c r="L6" t="n">
-        <v>255805.9595049002</v>
+        <v>255771.2215794646</v>
       </c>
       <c r="M6" t="n">
-        <v>124921.5026006653</v>
+        <v>124886.7646752294</v>
       </c>
       <c r="N6" t="n">
-        <v>255805.9595049003</v>
+        <v>255771.2215794649</v>
       </c>
       <c r="O6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794649</v>
       </c>
       <c r="P6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.2215794649</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>141.3996880744035</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>98.83147190345622</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.89882608135297</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>158.4833553084767</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>58.85724825248963</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>299.4578824689508</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>116.4668203079992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>200.8404653474971</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>317.4013584840443</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>218.3901374714042</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>54.80816985564262</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28029,7 +28029,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>174.4797512617828</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28855,13 +28855,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915851</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000311</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161563</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352463</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>425.8881376600212</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223259</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16.76851115643689</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517965</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840959</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>351.2966729088902</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168693</v>
+        <v>88.19877553044654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344169</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>545.7821105552085</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>638.166758417006</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
         <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>310.3675280471055</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>615.4729594198666</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
